--- a/outputs-r202/c__Negativicutes.xlsx
+++ b/outputs-r202/c__Negativicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,6 +558,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -601,6 +611,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -649,6 +664,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -697,6 +717,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -745,6 +770,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -793,6 +823,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -841,6 +876,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -889,6 +929,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -937,6 +982,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -985,6 +1035,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1033,6 +1088,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1081,6 +1141,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1129,6 +1194,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1177,6 +1247,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1225,6 +1300,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1273,6 +1353,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1321,6 +1406,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1369,6 +1459,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1417,6 +1512,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1465,6 +1565,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1513,6 +1618,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1561,6 +1671,11 @@
           <t>o__UBA1444</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>o__UBA1444</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1609,6 +1724,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1657,6 +1777,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1705,6 +1830,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1753,6 +1883,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1801,6 +1936,11 @@
           <t>o__Selenomonadales</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>o__Selenomonadales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1849,6 +1989,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1893,6 +2038,11 @@
         <v>0.9999986194872917</v>
       </c>
       <c r="N30" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>o__Acidaminococcales</t>
         </is>

--- a/outputs-r202/c__Negativicutes.xlsx
+++ b/outputs-r202/c__Negativicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,309 +514,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG014.fasta</t>
+          <t>RUG005.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>6.012726282122906e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999997399</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>3.964122501204804e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>2.220445969231052e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.22044604925022e-14</v>
+        <v>0.99999960358755</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9999999999997399</v>
+        <v>0.99999960358755</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Veillonellales</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Veillonellales</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG019.fasta</t>
+          <t>RUG014.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999692522299568</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>1.130415919653684e-06</v>
+        <v>2.696364104041064e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>5.374125225955698e-12</v>
+        <v>0.9999999999971039</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.961734859404775e-05</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.22043984310345e-14</v>
+        <v>2.220446049249688e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999692522299568</v>
+        <v>0.9999999999971039</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG043.fasta</t>
+          <t>RUG019.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.9991269975533869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0008356131710132348</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2.005663295118942e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.738726978091003e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.220270276747689e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.9991269975533869</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG045.fasta</t>
+          <t>RUG043.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999391479704</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6.085182987046505e-08</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220446036966762e-14</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9999999391479704</v>
+        <v>1</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG072.fasta</t>
+          <t>RUG045.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9999998092787854</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.907210148604502e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.220446010751552e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.9999998092787854</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG077.fasta</t>
+          <t>RUG072.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.613509430123305e-11</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999999999036652</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.220446049230827e-14</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9999999999036652</v>
+        <v>1</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -832,256 +832,256 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG097.fasta</t>
+          <t>RUG077.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9981850262695163</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>6.26764383441121e-08</v>
+        <v>3.352379358744261e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>0.9999999999662763</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00181491105386778</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.220081628646461e-14</v>
+        <v>2.220446049243466e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9981850262695163</v>
+        <v>0.9999999999662763</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG102.fasta</t>
+          <t>RUG097.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.997826035992999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.561876921022623e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.002173507819131311</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.220010009965465e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.997826035992999</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG140.fasta</t>
+          <t>RUG102.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9969952956678694</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002712361018865607</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.059430919821745e-12</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002923433090503221</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2.220017245312023e-14</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9969952956678694</v>
+        <v>1</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG162.fasta</t>
+          <t>RUG140.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.9998672921942943</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.0001064355843748593</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3.386190461717397e-09</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.626883498497506e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.220419271434903e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.9998672921942943</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG179.fasta</t>
+          <t>RUG162.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>6.885647161354081e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999999993893</v>
+        <v>0.9999999999309437</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>4.109135374613357e-13</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>2.220446054491838e-14</v>
+        <v>2.220446049236334e-14</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9999999999993893</v>
+        <v>0.9999999999309437</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1097,44 +1097,44 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG276.fasta</t>
+          <t>RUG179.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.9999999999997564</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.368837299542029e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2.220446049253384e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.9999999999997564</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG371.fasta</t>
+          <t>RUG276.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1203,203 +1203,203 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG384.fasta</t>
+          <t>RUG371.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9051267673407934</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09480535241155615</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.214762469322783e-11</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.788023534725199e-05</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.219522548392084e-14</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9051267673407934</v>
+        <v>1</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG411.fasta</t>
+          <t>RUG384.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>0.9987658319392707</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>0.001171858941634932</v>
       </c>
       <c r="F16" t="n">
-        <v>2.701300529419584e-14</v>
+        <v>5.064809086424157e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>1.104337186895715e-05</v>
+        <v>6.23040541297591e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>2.220443820121309e-14</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9999889566279264</v>
+        <v>2.220197822353809e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9999889566279264</v>
+        <v>0.9987658319392707</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>o__Veillonellales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>o__Veillonellales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG556.fasta</t>
+          <t>RUG388.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999717617283885</v>
+        <v>1.064489799682249e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>1.064489799682249e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>1.064489799682249e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>3.800858287929933e-10</v>
+        <v>1.064489799682252e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>1.677415222805821e-12</v>
+        <v>0.2565988179369255</v>
       </c>
       <c r="G17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>1.064489799682252e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>2.823788969272631e-05</v>
+        <v>0.1430818382671567</v>
       </c>
       <c r="I17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>1.064489799682252e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>1.064489799682253e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>1.064489799682255e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>2.220440349580093e-14</v>
+        <v>0.6003108278775202</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9999717617283885</v>
+        <v>0.6003108278775202</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Veillonellales</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Veillonellales(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG618.fasta</t>
+          <t>RUG411.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>6.201760008088549e-13</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>1.185189575621063e-08</v>
+        <v>6.06976480245576e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>2.220446046857708e-14</v>
+        <v>2.220433799078465e-14</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9999999881473065</v>
+        <v>0.9999393023517756</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9999999881473065</v>
+        <v>0.9999393023517756</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1415,97 +1415,97 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG628.fasta</t>
+          <t>RUG556.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0005032768127047981</v>
+        <v>0.9999971197653656</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005032768127047981</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0005032768127047989</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005032768127048008</v>
+        <v>2.758521049960442e-08</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9949672318729521</v>
+        <v>9.712199584054115e-09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0005032768127048007</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0005032768127048013</v>
+        <v>2.842937068845844e-06</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0005032768127048013</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0005032768127048013</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0005032768127048055</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005032768127048027</v>
+        <v>2.220445467854677e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9949672318729521</v>
+        <v>0.9999971197653656</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG633.fasta</t>
+          <t>RUG596.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09090909091361737</v>
+        <v>0.09090910236442075</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.0909090973669683</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09090909090863827</v>
+        <v>0.09090908891873456</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09090909091361737</v>
+        <v>0.09090910236442075</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1521,309 +1521,309 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG643.fasta</t>
+          <t>RUG618.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005032567516190225</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005032567516190225</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0005032567516190253</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0005032567516190289</v>
+        <v>3.187635898866267e-13</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9949674324838099</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0005032567516190315</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0005032567516190341</v>
+        <v>6.098004281248089e-08</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005032567516190341</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0005032567516190341</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0005032567516190338</v>
+        <v>2.220446036940826e-14</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005032567516190295</v>
+        <v>0.9999999390194608</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9949674324838099</v>
+        <v>0.9999999390194608</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Veillonellales</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Veillonellales</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG720.fasta</t>
+          <t>RUG628.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3741913082664329</v>
+        <v>0.0005032567157587541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03552440404860513</v>
+        <v>0.0005032567157587541</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03552440404860518</v>
+        <v>0.0005032567157587567</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03552440404860513</v>
+        <v>0.0005032567157587593</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1172220564488792</v>
+        <v>0.9949674328424123</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03552440404860518</v>
+        <v>0.0005032567157587612</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2243914028958463</v>
+        <v>0.0005032567157587617</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03552440404860518</v>
+        <v>0.0005032567157587617</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03552440404860525</v>
+        <v>0.0005032567157587617</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03552440404860527</v>
+        <v>0.0005032567157587627</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03552440404860527</v>
+        <v>0.0005032567157587618</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3741913082664329</v>
+        <v>0.9949674328424123</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales(reject)</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG730.fasta</t>
+          <t>RUG633.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.09090909091378928</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.09090909090862107</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.09090909091378928</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>o__UBA1444</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>o__UBA1444</t>
+          <t>o__Selenomonadales(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG758.fasta</t>
+          <t>RUG730.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6407710535647698</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.021399162307079e-13</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.220318657644473e-14</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3592289464348504</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6407710535647698</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__UBA1444</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>o__Selenomonadales(reject)</t>
+          <t>o__UBA1444</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG762.fasta</t>
+          <t>RUG752.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>0.2097080557558856</v>
       </c>
       <c r="C25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883683e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883683e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883682e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999999995219924</v>
+        <v>1.094188416879621e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883683e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>4.778077693238566e-10</v>
+        <v>0.3894132259110135</v>
       </c>
       <c r="I25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883683e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883683e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>2.685869246883683e-14</v>
       </c>
       <c r="L25" t="n">
-        <v>2.220942340518289e-14</v>
+        <v>0.4008787183328033</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9999999995219924</v>
+        <v>0.4008787183328033</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Veillonellales</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Veillonellales(reject)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG781.fasta</t>
+          <t>RUG758.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586607e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586607e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586607e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586635e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>2.668810004696405e-12</v>
+        <v>0.4762800496258318</v>
       </c>
       <c r="G26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586639e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>2.382784374646495e-11</v>
+        <v>3.420271411837992e-12</v>
       </c>
       <c r="I26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586639e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586639e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>2.220446049244893e-14</v>
+        <v>7.307862742586645e-14</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9999999999733257</v>
+        <v>0.5237199503701633</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9999999999733257</v>
+        <v>0.5237199503701633</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1832,217 +1832,323 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>o__Veillonellales</t>
+          <t>o__Veillonellales(reject)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG848.fasta</t>
+          <t>RUG762.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999985468971915</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>4.819933111950082e-07</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>1.627519025682033e-09</v>
+        <v>0.9999999960734135</v>
       </c>
       <c r="G27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>9.694818228905072e-07</v>
+        <v>3.926386714435277e-09</v>
       </c>
       <c r="I27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="J27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="K27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="L27" t="n">
-        <v>2.220445755930041e-14</v>
+        <v>2.220606387119801e-14</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9999985468971915</v>
+        <v>0.9999999960734135</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>hRUG860.fasta</t>
+          <t>RUG848.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.9999499371346879</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.804476719413462e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>7.526817663944662e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.194282978574835e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.220435945105786e-14</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.9999499371346879</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>o__Selenomonadales</t>
+          <t>o__Acidaminococcales</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>hRUG885.fasta</t>
+          <t>hRUG860.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.075144826335197e-08</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.220446047079959e-14</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.999999989248352</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.999999989248352</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>o__Veillonellales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>o__Veillonellales</t>
+          <t>o__Selenomonadales</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>hRUG872.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.68763688649964e-06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.715700892987138e-09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.220444899209067e-14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9999943026472349</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9999943026472349</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>hRUG885.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.167300975338511e-07</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.220446005501398e-14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9999997832697025</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9999997832697025</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>hRUG887.fasta</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.9999986194872917</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.380512508506192e-06</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.220445770582856e-14</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9999986194872917</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="B32" t="n">
+        <v>0.9999786270213484</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.137297845173113e-05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.22044173519802e-14</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9999786270213484</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>o__Acidaminococcales</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>o__Acidaminococcales</t>
         </is>
